--- a/biology/Médecine/Hôpital_central_de_Yaoundé/Hôpital_central_de_Yaoundé.xlsx
+++ b/biology/Médecine/Hôpital_central_de_Yaoundé/Hôpital_central_de_Yaoundé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Yaound%C3%A9</t>
+          <t>Hôpital_central_de_Yaoundé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital central de Yaoundé, en abrégé HCY, est un hôpital public à Yaoundé au Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Yaound%C3%A9</t>
+          <t>Hôpital_central_de_Yaoundé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital central de Yaoundé voit le jour en 1933[1],[2]. Simon Pierre Tchoungui, ancien premier ministre de l'Est Cameroun, a été surintendant médical de l'hôpital en 1960 avant d'être nommé ministre de la Santé en 1961[3]. 
-L'hôpital est à l'origine un établissement de jour. Il subit plusieurs changements structurels et propose désormais des soins 24h/24 et 7j/7[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital central de Yaoundé voit le jour en 1933,. Simon Pierre Tchoungui, ancien premier ministre de l'Est Cameroun, a été surintendant médical de l'hôpital en 1960 avant d'être nommé ministre de la Santé en 1961. 
+L'hôpital est à l'origine un établissement de jour. Il subit plusieurs changements structurels et propose désormais des soins 24h/24 et 7j/7. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Yaound%C3%A9</t>
+          <t>Hôpital_central_de_Yaoundé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut citer l'unité de médecine et spécialités, l'unité chirurgie, l'unité gynécologie et obstétrique et l'unité technique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut citer l'unité de médecine et spécialités, l'unité chirurgie, l'unité gynécologie et obstétrique et l'unité technique.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Yaound%C3%A9</t>
+          <t>Hôpital_central_de_Yaoundé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Yaound%C3%A9</t>
+          <t>Hôpital_central_de_Yaoundé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jeanne-Irène Biya
 René Essomba
